--- a/기획/CSV/News.xlsx
+++ b/기획/CSV/News.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\강의자료\2022 2학기\오픈소스소프트웨어\OSS 기말 프로젝트\OSS\기획\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003BAE9B-8579-4579-97C4-D8E84BDD3A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CC4BDA-FA66-49CC-8066-EC05EFA8F8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1054,7 +1054,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1091,7 +1091,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -1104,6 +1110,12 @@
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>-4</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
@@ -1115,6 +1127,12 @@
       <c r="C4">
         <v>1</v>
       </c>
+      <c r="D4">
+        <v>-4</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
@@ -1124,7 +1142,13 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>-2</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -1137,6 +1161,12 @@
       <c r="C6">
         <v>1</v>
       </c>
+      <c r="D6">
+        <v>-5</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
@@ -1146,7 +1176,13 @@
         <v>15</v>
       </c>
       <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
         <v>1</v>
+      </c>
+      <c r="E7">
+        <v>-6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -1157,7 +1193,13 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>-3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -1168,7 +1210,13 @@
         <v>20</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>-2</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
